--- a/Assets/YusGameFrame/ExcelTool/Excels/Localization.xlsx
+++ b/Assets/YusGameFrame/ExcelTool/Excels/Localization.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>key</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>person</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>&lt;link="glitch"&gt;是故障！~!&lt;/link&gt;</t>
+  </si>
+  <si>
+    <t>&lt;link="wave"&gt;wave, wave, wave, alright&lt;/link&gt;</t>
   </si>
 </sst>
 </file>
@@ -987,16 +996,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="49.8181818181818" customWidth="1"/>
     <col min="3" max="3" width="50.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="34.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1046,6 +1056,17 @@
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
